--- a/biology/Zoologie/Dibothriocephalus/Dibothriocephalus.xlsx
+++ b/biology/Zoologie/Dibothriocephalus/Dibothriocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dibothriocephalus est un genre de vers plats parasites de la famille des Diphyllobothriidae. Qualifiés improprement de ténias, ces vers peuvent parasiter le tube digestif des humains, causant la dibothriocéphalose.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet avec auteur de ce taxon est Dibothriocephalus Lühe (d), 1899[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (21 février 2024)[1], le genre Dibothriocephalus contient les treize espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Dibothriocephalus Lühe (d), 1899.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dibothriocephalus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dibothriocephalus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (21 février 2024), le genre Dibothriocephalus contient les treize espèces suivantes :
 Dibothriocephalus alaskensis (Rausch &amp; Williamson, 1958) Waeschenbach, Brabec, Scholz, Littlewood &amp; Kuchta, 2017
 Dibothriocephalus attenuatus Guiart, 1935
 Dibothriocephalus coatsi Rennie &amp; Reid, 1912
@@ -554,9 +605,43 @@
 Dibothriocephalus latus (Linnaeus, 1758) Lühe, 1899 - Ténia du poisson en français
 Dibothriocephalus maculatus (Leuckart, 1848) Lühe, 1899
 Dibothriocephalus nihonkaiensis (Yamane, Kamo, Bylund &amp; Wikgren, 1986) Waeschenbach, Brabec, Scholz, Littlewood &amp; Kuchta, 2017
-Dibothriocephalus ursi (Rausch, 1954) Waeschenbach, Brabec, Scholz, Littlewood &amp; Kuchta, 2017
-Synonymes, reclassements
-D'après World Register of Marine Species                               (21 février 2024)[1], les espèces suivantes sont des synonymes. Les reclassements sont faits au sein de la famille des Diphyllobothriidae.
+Dibothriocephalus ursi (Rausch, 1954) Waeschenbach, Brabec, Scholz, Littlewood &amp; Kuchta, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dibothriocephalus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dibothriocephalus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (21 février 2024), les espèces suivantes sont des synonymes. Les reclassements sont faits au sein de la famille des Diphyllobothriidae.
 Dibothriocephalus antarcticus (Baird, 1853) est synonyme de Glandicephalus antarcticus (Baird, 1853) Fuhrmann, 1921
 Dibothriocephalus archeri Leiper &amp; Atkinson, 1914 est synonyme de Diphyllobothrium lashleyi (Leiper &amp; Atkinson, 1914) Meggitt, 1924
 Dibothriocephalus atlanticum Delyamure &amp; Parukhin, 1968 est synonyme de Adenocephalus pacificus Nybelin, 1931
@@ -578,31 +663,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dibothriocephalus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dibothriocephalus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Max Lühe, « Zur Anatomie und Systematik der Bothriocephalidenn », Verhandlungen der Deutschen Zoologischen Gesellschaft, vol. 9, 1899, p. 30-55 (lire en ligne)
 </t>
